--- a/inst/carbon_values.xlsx
+++ b/inst/carbon_values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Proyectos\R_paquetes\silviculture-CONTENIDO\biomasa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Proyectos\R_paquetes\silviculture-CONTENIDO\06_cambios_varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC00B8D-866B-41F3-8B21-929BECB386B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F394C6B-CF36-4885-A5DB-AEBEED6430C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C4FDFBB-9A3A-4B52-BAB3-14B222CBD924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C4FDFBB-9A3A-4B52-BAB3-14B222CBD924}"/>
   </bookViews>
   <sheets>
     <sheet name="carbon" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="80">
   <si>
     <t>article_id</t>
   </si>
@@ -126,12 +129,6 @@
     <t>medium branches</t>
   </si>
   <si>
-    <t>thin branches</t>
-  </si>
-  <si>
-    <t>smallest branches</t>
-  </si>
-  <si>
     <t>leaves</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>stem and thick branches</t>
-  </si>
-  <si>
-    <t>medium branches and thin branches</t>
   </si>
   <si>
     <t>Eucalyptus nitens</t>
@@ -273,97 +267,19 @@
     <t>Otras laurisilvas</t>
   </si>
   <si>
-    <t>48.5</t>
-  </si>
-  <si>
-    <t>45.2</t>
-  </si>
-  <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>46.4</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>50.1</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>51.5</t>
-  </si>
-  <si>
-    <t>57.2</t>
-  </si>
-  <si>
-    <t>50.4</t>
-  </si>
-  <si>
-    <t>47.1</t>
-  </si>
-  <si>
-    <t>50.8</t>
-  </si>
-  <si>
-    <t>47.9</t>
-  </si>
-  <si>
-    <t>50.5</t>
-  </si>
-  <si>
-    <t>49.7</t>
-  </si>
-  <si>
-    <t>54.1</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>53.2</t>
-  </si>
-  <si>
-    <t>52.7</t>
-  </si>
-  <si>
-    <t>50.9</t>
-  </si>
-  <si>
-    <t>48.4</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>49.1</t>
-  </si>
-  <si>
-    <t>50.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>48.6</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Carbon content expressed as a proportion, with values ranging from 0 to 1.</t>
+  </si>
+  <si>
+    <t>medium branches and small branches</t>
+  </si>
+  <si>
+    <t>twigs</t>
+  </si>
+  <si>
+    <t>small branches</t>
   </si>
 </sst>
 </file>
@@ -719,7 +635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="L1" activeCellId="2" sqref="J1:J1048576 K1:K1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,17 +721,17 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>78</v>
+      <c r="J2">
+        <v>48.5</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -846,17 +762,17 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>78</v>
+      <c r="J3">
+        <v>48.5</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -887,17 +803,17 @@
       <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
-        <v>78</v>
+      <c r="J4">
+        <v>48.5</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -928,17 +844,17 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
+      <c r="J5">
+        <v>48.5</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -967,19 +883,19 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>48.5</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1008,19 +924,19 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
         <v>78</v>
       </c>
+      <c r="J7">
+        <v>48.5</v>
+      </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1049,19 +965,19 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>48.5</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1084,25 +1000,25 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>48.5</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1122,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1131,19 +1047,19 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>45.2</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1163,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1174,17 +1090,17 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" t="s">
-        <v>80</v>
+      <c r="J11">
+        <v>42.5</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1213,19 +1129,19 @@
         <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>45.3</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1245,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -1254,19 +1170,19 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <v>46.4</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1286,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1295,19 +1211,19 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1327,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1336,19 +1252,19 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>50.1</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1368,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -1379,17 +1295,17 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" t="s">
-        <v>85</v>
+      <c r="J16">
+        <v>46.9</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1409,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -1420,17 +1336,17 @@
       <c r="I17" t="s">
         <v>27</v>
       </c>
-      <c r="J17" t="s">
-        <v>86</v>
+      <c r="J17">
+        <v>49.8</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1450,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1461,17 +1377,17 @@
       <c r="I18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
-        <v>86</v>
+      <c r="J18">
+        <v>49.8</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1491,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1500,19 +1416,19 @@
         <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="J19">
+        <v>51.5</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1532,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
@@ -1541,19 +1457,19 @@
         <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>57.2</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1573,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>
@@ -1582,19 +1498,19 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s">
-        <v>89</v>
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>50.4</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1614,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
@@ -1623,19 +1539,19 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>47.1</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1655,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>23</v>
@@ -1666,17 +1582,17 @@
       <c r="I23" t="s">
         <v>25</v>
       </c>
-      <c r="J23" t="s">
-        <v>91</v>
+      <c r="J23">
+        <v>50.8</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1696,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
@@ -1707,17 +1623,17 @@
       <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
-        <v>92</v>
+      <c r="J24">
+        <v>47.9</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1737,7 +1653,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1748,17 +1664,17 @@
       <c r="I25" t="s">
         <v>28</v>
       </c>
-      <c r="J25" t="s">
-        <v>93</v>
+      <c r="J25">
+        <v>50.5</v>
       </c>
       <c r="K25" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1778,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
@@ -1787,19 +1703,19 @@
         <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="J26">
+        <v>49.7</v>
       </c>
       <c r="K26" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1819,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -1828,19 +1744,19 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>49.7</v>
       </c>
       <c r="K27" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1860,7 +1776,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -1869,19 +1785,19 @@
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" t="s">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>50.4</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>23</v>
@@ -1912,17 +1828,17 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" t="s">
-        <v>95</v>
+      <c r="J29">
+        <v>54.1</v>
       </c>
       <c r="K29" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M29" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>23</v>
@@ -1953,17 +1869,17 @@
       <c r="I30" t="s">
         <v>27</v>
       </c>
-      <c r="J30" t="s">
-        <v>96</v>
+      <c r="J30">
+        <v>51.3</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1983,7 +1899,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>23</v>
@@ -1994,17 +1910,17 @@
       <c r="I31" t="s">
         <v>28</v>
       </c>
-      <c r="J31" t="s">
-        <v>97</v>
+      <c r="J31">
+        <v>52.5</v>
       </c>
       <c r="K31" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2024,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>23</v>
@@ -2033,19 +1949,19 @@
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="J32">
+        <v>53.2</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M32" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2065,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>23</v>
@@ -2074,19 +1990,19 @@
         <v>26</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="J33">
+        <v>52.7</v>
       </c>
       <c r="K33" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L33" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2106,28 +2022,28 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" t="s">
-        <v>94</v>
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>49.7</v>
       </c>
       <c r="K34" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2147,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
@@ -2156,19 +2072,19 @@
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="J35">
+        <v>50.9</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2188,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -2199,17 +2115,17 @@
       <c r="I36" t="s">
         <v>27</v>
       </c>
-      <c r="J36" t="s">
-        <v>100</v>
+      <c r="J36">
+        <v>50.9</v>
       </c>
       <c r="K36" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L36" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2229,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -2240,17 +2156,17 @@
       <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" t="s">
-        <v>100</v>
+      <c r="J37">
+        <v>50.9</v>
       </c>
       <c r="K37" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L37" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2270,7 +2186,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
@@ -2279,19 +2195,19 @@
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <v>50.9</v>
       </c>
       <c r="K38" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2311,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -2320,19 +2236,19 @@
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" t="s">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>50.9</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,28 +2268,28 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" t="s">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="J40">
+        <v>50.9</v>
       </c>
       <c r="K40" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2393,7 +2309,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>23</v>
@@ -2404,17 +2320,17 @@
       <c r="I41" t="s">
         <v>24</v>
       </c>
-      <c r="J41" t="s">
-        <v>101</v>
+      <c r="J41">
+        <v>48.4</v>
       </c>
       <c r="K41" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L41" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M41" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2434,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
@@ -2445,17 +2361,17 @@
       <c r="I42" t="s">
         <v>25</v>
       </c>
-      <c r="J42" t="s">
-        <v>102</v>
+      <c r="J42">
+        <v>51.2</v>
       </c>
       <c r="K42" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L42" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M42" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2475,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>23</v>
@@ -2486,17 +2402,17 @@
       <c r="I43" t="s">
         <v>27</v>
       </c>
-      <c r="J43" t="s">
-        <v>103</v>
+      <c r="J43">
+        <v>49.1</v>
       </c>
       <c r="K43" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L43" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M43" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2516,7 +2432,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>23</v>
@@ -2527,17 +2443,17 @@
       <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="s">
-        <v>101</v>
+      <c r="J44">
+        <v>48.4</v>
       </c>
       <c r="K44" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L44" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M44" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2557,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
@@ -2566,19 +2482,19 @@
         <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="J45">
+        <v>50.3</v>
       </c>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M45" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2598,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>23</v>
@@ -2607,19 +2523,19 @@
         <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" t="s">
-        <v>105</v>
+        <v>78</v>
+      </c>
+      <c r="J46">
+        <v>50.7</v>
       </c>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L46" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2639,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>23</v>
@@ -2648,19 +2564,19 @@
         <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" t="s">
-        <v>89</v>
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <v>50.4</v>
       </c>
       <c r="K47" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L47" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2680,28 +2596,28 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="J48">
+        <v>48.6</v>
       </c>
       <c r="K48" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L48" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2721,28 +2637,28 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>50.6</v>
       </c>
       <c r="K49" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L49" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2762,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>23</v>
@@ -2777,13 +2693,13 @@
         <v>50.6</v>
       </c>
       <c r="K50" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L50" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2803,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
         <v>23</v>
@@ -2818,13 +2734,13 @@
         <v>50.6</v>
       </c>
       <c r="K51" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L51" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M51" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2844,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>23</v>
@@ -2859,13 +2775,13 @@
         <v>50.6</v>
       </c>
       <c r="K52" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L52" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M52" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2885,7 +2801,7 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>23</v>
@@ -2894,19 +2810,19 @@
         <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J53">
         <v>50.6</v>
       </c>
       <c r="K53" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L53" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M53" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2926,28 +2842,28 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
         <v>44</v>
       </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" t="s">
-        <v>47</v>
-      </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L54" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M54" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2967,28 +2883,28 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J55">
         <v>50.6</v>
       </c>
       <c r="K55" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L55" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M55" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3008,28 +2924,28 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>50</v>
       </c>
       <c r="K56" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L56" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M56" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3049,7 +2965,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
         <v>23</v>
@@ -3064,13 +2980,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L57" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M57" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3090,7 +3006,7 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
         <v>23</v>
@@ -3105,13 +3021,13 @@
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M58" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3131,7 +3047,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>23</v>
@@ -3146,13 +3062,13 @@
         <v>50</v>
       </c>
       <c r="K59" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L59" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M59" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3172,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>23</v>
@@ -3181,19 +3097,19 @@
         <v>26</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J60">
         <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L60" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M60" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3213,7 +3129,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>23</v>
@@ -3222,19 +3138,19 @@
         <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L61" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M61" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,28 +3170,28 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L62" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M62" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3295,28 +3211,28 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L63" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M63" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3336,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
         <v>23</v>
@@ -3351,13 +3267,13 @@
         <v>50</v>
       </c>
       <c r="K64" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L64" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M64" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3377,7 +3293,7 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
         <v>23</v>
@@ -3392,13 +3308,13 @@
         <v>50</v>
       </c>
       <c r="K65" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L65" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M65" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3418,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
         <v>23</v>
@@ -3433,13 +3349,13 @@
         <v>50</v>
       </c>
       <c r="K66" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L66" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M66" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3459,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
         <v>23</v>
@@ -3468,19 +3384,19 @@
         <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J67">
         <v>50</v>
       </c>
       <c r="K67" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L67" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M67" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3500,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
         <v>23</v>
@@ -3509,19 +3425,19 @@
         <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>50</v>
       </c>
       <c r="K68" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L68" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M68" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3541,28 +3457,28 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J69">
         <v>50</v>
       </c>
       <c r="K69" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L69" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M69" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3582,28 +3498,28 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>48.5</v>
       </c>
       <c r="K70" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L70" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M70" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3623,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>23</v>
@@ -3638,13 +3554,13 @@
         <v>48.5</v>
       </c>
       <c r="K71" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L71" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3664,7 +3580,7 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
         <v>23</v>
@@ -3679,13 +3595,13 @@
         <v>48.5</v>
       </c>
       <c r="K72" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L72" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M72" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3705,7 +3621,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s">
         <v>23</v>
@@ -3720,13 +3636,13 @@
         <v>48.5</v>
       </c>
       <c r="K73" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L73" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M73" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3746,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s">
         <v>23</v>
@@ -3755,19 +3671,19 @@
         <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J74">
         <v>48.5</v>
       </c>
       <c r="K74" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L74" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M74" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3787,7 +3703,7 @@
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
         <v>23</v>
@@ -3796,19 +3712,19 @@
         <v>26</v>
       </c>
       <c r="I75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J75">
         <v>48.5</v>
       </c>
       <c r="K75" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L75" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M75" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3828,28 +3744,28 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J76">
         <v>48.5</v>
       </c>
       <c r="K76" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M76" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3869,28 +3785,28 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>48.4</v>
       </c>
       <c r="K77" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L77" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M77" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3910,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s">
         <v>23</v>
@@ -3925,13 +3841,13 @@
         <v>48.4</v>
       </c>
       <c r="K78" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L78" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M78" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3951,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
         <v>23</v>
@@ -3966,13 +3882,13 @@
         <v>48.4</v>
       </c>
       <c r="K79" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L79" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M79" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3992,7 +3908,7 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
         <v>23</v>
@@ -4007,13 +3923,13 @@
         <v>48.4</v>
       </c>
       <c r="K80" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L80" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M80" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4033,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
         <v>23</v>
@@ -4042,19 +3958,19 @@
         <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J81">
         <v>48.4</v>
       </c>
       <c r="K81" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L81" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M81" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4074,7 +3990,7 @@
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G82" t="s">
         <v>23</v>
@@ -4083,19 +3999,19 @@
         <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J82" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K82" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L82" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M82" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4115,28 +4031,28 @@
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J83">
         <v>48.4</v>
       </c>
       <c r="K83" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L83" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M83" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4156,28 +4072,28 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>50</v>
       </c>
       <c r="K84" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L84" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M84" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4197,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s">
         <v>23</v>
@@ -4212,13 +4128,13 @@
         <v>50</v>
       </c>
       <c r="K85" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L85" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M85" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4238,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s">
         <v>23</v>
@@ -4253,13 +4169,13 @@
         <v>50</v>
       </c>
       <c r="K86" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L86" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M86" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4279,7 +4195,7 @@
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G87" t="s">
         <v>23</v>
@@ -4294,13 +4210,13 @@
         <v>50</v>
       </c>
       <c r="K87" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L87" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M87" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4320,7 +4236,7 @@
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G88" t="s">
         <v>23</v>
@@ -4329,19 +4245,19 @@
         <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J88">
         <v>50</v>
       </c>
       <c r="K88" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L88" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M88" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4361,7 +4277,7 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G89" t="s">
         <v>23</v>
@@ -4370,19 +4286,19 @@
         <v>26</v>
       </c>
       <c r="I89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J89">
         <v>50</v>
       </c>
       <c r="K89" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L89" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M89" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4402,28 +4318,28 @@
         <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J90">
         <v>50</v>
       </c>
       <c r="K90" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L90" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M90" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4443,28 +4359,28 @@
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>50</v>
       </c>
       <c r="K91" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L91" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M91" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4484,7 +4400,7 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s">
         <v>23</v>
@@ -4499,13 +4415,13 @@
         <v>50</v>
       </c>
       <c r="K92" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L92" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M92" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4525,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G93" t="s">
         <v>23</v>
@@ -4540,13 +4456,13 @@
         <v>50</v>
       </c>
       <c r="K93" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L93" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M93" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4566,7 +4482,7 @@
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s">
         <v>23</v>
@@ -4581,13 +4497,13 @@
         <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M94" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4607,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s">
         <v>23</v>
@@ -4616,19 +4532,19 @@
         <v>26</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J95">
         <v>50</v>
       </c>
       <c r="K95" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L95" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4648,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
         <v>23</v>
@@ -4657,19 +4573,19 @@
         <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J96" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K96" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L96" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M96" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4689,28 +4605,28 @@
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J97" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K97" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L97" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M97" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4730,28 +4646,28 @@
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H98" t="s">
         <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>47.5</v>
       </c>
       <c r="K98" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L98" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M98" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4771,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s">
         <v>23</v>
@@ -4780,19 +4696,19 @@
         <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J99">
         <v>47.5</v>
       </c>
       <c r="K99" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L99" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M99" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4812,7 +4728,7 @@
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
@@ -4827,13 +4743,13 @@
         <v>47.5</v>
       </c>
       <c r="K100" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L100" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M100" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4853,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G101" t="s">
         <v>23</v>
@@ -4862,19 +4778,19 @@
         <v>26</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J101">
         <v>47.5</v>
       </c>
       <c r="K101" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L101" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M101" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4894,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G102" t="s">
         <v>23</v>
@@ -4903,19 +4819,19 @@
         <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J102">
         <v>47.5</v>
       </c>
       <c r="K102" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L102" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M102" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4935,28 +4851,28 @@
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>48.6</v>
       </c>
       <c r="K103" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L103" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M103" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4976,7 +4892,7 @@
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G104" t="s">
         <v>23</v>
@@ -4991,13 +4907,13 @@
         <v>48.6</v>
       </c>
       <c r="K104" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L104" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M104" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5017,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s">
         <v>23</v>
@@ -5032,13 +4948,13 @@
         <v>48.6</v>
       </c>
       <c r="K105" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L105" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M105" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5058,7 +4974,7 @@
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s">
         <v>23</v>
@@ -5073,13 +4989,13 @@
         <v>48.6</v>
       </c>
       <c r="K106" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L106" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M106" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5099,7 +5015,7 @@
         <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G107" t="s">
         <v>23</v>
@@ -5108,19 +5024,19 @@
         <v>26</v>
       </c>
       <c r="I107" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J107">
         <v>48.6</v>
       </c>
       <c r="K107" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L107" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M107" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5140,7 +5056,7 @@
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
         <v>23</v>
@@ -5149,19 +5065,19 @@
         <v>26</v>
       </c>
       <c r="I108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K108" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L108" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M108" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5181,28 +5097,28 @@
         <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J109">
         <v>48.6</v>
       </c>
       <c r="K109" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L109" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M109" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5222,28 +5138,28 @@
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>47.8</v>
       </c>
       <c r="K110" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L110" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M110" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5263,7 +5179,7 @@
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G111" t="s">
         <v>23</v>
@@ -5278,13 +5194,13 @@
         <v>47.8</v>
       </c>
       <c r="K111" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L111" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M111" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5304,7 +5220,7 @@
         <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G112" t="s">
         <v>23</v>
@@ -5319,13 +5235,13 @@
         <v>47.8</v>
       </c>
       <c r="K112" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L112" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M112" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5345,7 +5261,7 @@
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G113" t="s">
         <v>23</v>
@@ -5360,13 +5276,13 @@
         <v>47.8</v>
       </c>
       <c r="K113" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L113" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M113" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5386,7 +5302,7 @@
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G114" t="s">
         <v>23</v>
@@ -5395,19 +5311,19 @@
         <v>26</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J114">
         <v>47.8</v>
       </c>
       <c r="K114" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L114" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M114" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5427,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G115" t="s">
         <v>23</v>
@@ -5436,19 +5352,19 @@
         <v>26</v>
       </c>
       <c r="I115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J115" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K115" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L115" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M115" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5468,28 +5384,28 @@
         <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J116">
         <v>47.8</v>
       </c>
       <c r="K116" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L116" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M116" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5509,28 +5425,28 @@
         <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H117" t="s">
         <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>50</v>
       </c>
       <c r="K117" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L117" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M117" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5550,7 +5466,7 @@
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G118" t="s">
         <v>23</v>
@@ -5565,13 +5481,13 @@
         <v>50</v>
       </c>
       <c r="K118" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L118" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M118" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5591,7 +5507,7 @@
         <v>20</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
@@ -5606,13 +5522,13 @@
         <v>50</v>
       </c>
       <c r="K119" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L119" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M119" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5632,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G120" t="s">
         <v>23</v>
@@ -5647,13 +5563,13 @@
         <v>50</v>
       </c>
       <c r="K120" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L120" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M120" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5673,7 +5589,7 @@
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
@@ -5682,19 +5598,19 @@
         <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J121">
         <v>50</v>
       </c>
       <c r="K121" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L121" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M121" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5714,7 +5630,7 @@
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G122" t="s">
         <v>23</v>
@@ -5723,19 +5639,19 @@
         <v>26</v>
       </c>
       <c r="I122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J122" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L122" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M122" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5755,28 +5671,28 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J123" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K123" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L123" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M123" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5796,28 +5712,28 @@
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H124" t="s">
         <v>20</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>50</v>
       </c>
       <c r="K124" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L124" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M124" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5837,28 +5753,28 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J125">
         <v>50</v>
       </c>
       <c r="K125" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L125" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M125" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5878,28 +5794,28 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H126" t="s">
         <v>20</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>50</v>
       </c>
       <c r="K126" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L126" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M126" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5919,28 +5835,28 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J127">
         <v>50</v>
       </c>
       <c r="K127" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L127" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M127" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5960,28 +5876,28 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>47.5</v>
       </c>
       <c r="K128" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L128" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M128" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6001,7 +5917,7 @@
         <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G129" t="s">
         <v>23</v>
@@ -6016,13 +5932,13 @@
         <v>47.5</v>
       </c>
       <c r="K129" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L129" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M129" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6042,7 +5958,7 @@
         <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G130" t="s">
         <v>23</v>
@@ -6057,13 +5973,13 @@
         <v>47.5</v>
       </c>
       <c r="K130" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L130" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M130" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6083,7 +5999,7 @@
         <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G131" t="s">
         <v>23</v>
@@ -6098,13 +6014,13 @@
         <v>47.5</v>
       </c>
       <c r="K131" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L131" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M131" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6124,7 +6040,7 @@
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G132" t="s">
         <v>23</v>
@@ -6133,19 +6049,19 @@
         <v>26</v>
       </c>
       <c r="I132" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J132">
         <v>47.5</v>
       </c>
       <c r="K132" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L132" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M132" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6165,7 +6081,7 @@
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G133" t="s">
         <v>23</v>
@@ -6174,19 +6090,19 @@
         <v>26</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>47.5</v>
       </c>
       <c r="K133" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L133" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M133" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6206,28 +6122,28 @@
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J134">
         <v>47.5</v>
       </c>
       <c r="K134" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L134" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M134" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6247,28 +6163,28 @@
         <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H135" t="s">
         <v>20</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>50</v>
       </c>
       <c r="K135" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L135" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M135" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6288,7 +6204,7 @@
         <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G136" t="s">
         <v>23</v>
@@ -6303,13 +6219,13 @@
         <v>50</v>
       </c>
       <c r="K136" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L136" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M136" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6329,7 +6245,7 @@
         <v>20</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G137" t="s">
         <v>23</v>
@@ -6344,13 +6260,13 @@
         <v>50</v>
       </c>
       <c r="K137" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L137" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M137" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6370,7 +6286,7 @@
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G138" t="s">
         <v>23</v>
@@ -6385,13 +6301,13 @@
         <v>50</v>
       </c>
       <c r="K138" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L138" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M138" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6411,7 +6327,7 @@
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G139" t="s">
         <v>23</v>
@@ -6420,19 +6336,19 @@
         <v>26</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J139">
         <v>50</v>
       </c>
       <c r="K139" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L139" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M139" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6452,7 +6368,7 @@
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G140" t="s">
         <v>23</v>
@@ -6461,19 +6377,19 @@
         <v>26</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J140" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K140" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L140" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M140" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6493,28 +6409,28 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J141" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K141" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L141" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M141" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6534,28 +6450,28 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H142" t="s">
         <v>20</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>50</v>
       </c>
       <c r="K142" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L142" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M142" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6575,7 +6491,7 @@
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G143" t="s">
         <v>23</v>
@@ -6590,13 +6506,13 @@
         <v>50</v>
       </c>
       <c r="K143" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L143" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M143" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6616,7 +6532,7 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G144" t="s">
         <v>23</v>
@@ -6631,13 +6547,13 @@
         <v>50</v>
       </c>
       <c r="K144" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L144" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M144" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6657,7 +6573,7 @@
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G145" t="s">
         <v>23</v>
@@ -6672,13 +6588,13 @@
         <v>50</v>
       </c>
       <c r="K145" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L145" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M145" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6698,7 +6614,7 @@
         <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G146" t="s">
         <v>23</v>
@@ -6707,19 +6623,19 @@
         <v>26</v>
       </c>
       <c r="I146" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J146">
         <v>50</v>
       </c>
       <c r="K146" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L146" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M146" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6739,7 +6655,7 @@
         <v>20</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G147" t="s">
         <v>23</v>
@@ -6748,19 +6664,19 @@
         <v>26</v>
       </c>
       <c r="I147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J147" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K147" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L147" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M147" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6780,28 +6696,28 @@
         <v>20</v>
       </c>
       <c r="F148" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J148" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K148" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L148" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M148" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6821,28 +6737,28 @@
         <v>20</v>
       </c>
       <c r="F149" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H149" t="s">
         <v>20</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>47.3</v>
       </c>
       <c r="K149" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L149" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M149" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6862,7 +6778,7 @@
         <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G150" t="s">
         <v>23</v>
@@ -6877,13 +6793,13 @@
         <v>47.3</v>
       </c>
       <c r="K150" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L150" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M150" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6903,7 +6819,7 @@
         <v>20</v>
       </c>
       <c r="F151" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G151" t="s">
         <v>23</v>
@@ -6918,13 +6834,13 @@
         <v>47.3</v>
       </c>
       <c r="K151" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L151" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M151" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6944,7 +6860,7 @@
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G152" t="s">
         <v>23</v>
@@ -6959,13 +6875,13 @@
         <v>47.3</v>
       </c>
       <c r="K152" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L152" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M152" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6985,7 +6901,7 @@
         <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G153" t="s">
         <v>23</v>
@@ -6994,19 +6910,19 @@
         <v>26</v>
       </c>
       <c r="I153" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J153">
         <v>47.3</v>
       </c>
       <c r="K153" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L153" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M153" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7026,7 +6942,7 @@
         <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G154" t="s">
         <v>23</v>
@@ -7035,19 +6951,19 @@
         <v>26</v>
       </c>
       <c r="I154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J154">
         <v>47.3</v>
       </c>
       <c r="K154" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L154" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M154" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,28 +6983,28 @@
         <v>20</v>
       </c>
       <c r="F155" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J155">
         <v>47.3</v>
       </c>
       <c r="K155" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L155" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M155" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7108,28 +7024,28 @@
         <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H156" t="s">
         <v>20</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>50</v>
       </c>
       <c r="K156" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L156" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M156" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7149,7 +7065,7 @@
         <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G157" t="s">
         <v>23</v>
@@ -7164,13 +7080,13 @@
         <v>50</v>
       </c>
       <c r="K157" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L157" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M157" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7190,7 +7106,7 @@
         <v>20</v>
       </c>
       <c r="F158" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G158" t="s">
         <v>23</v>
@@ -7205,13 +7121,13 @@
         <v>50</v>
       </c>
       <c r="K158" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L158" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M158" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7231,7 +7147,7 @@
         <v>20</v>
       </c>
       <c r="F159" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G159" t="s">
         <v>23</v>
@@ -7246,13 +7162,13 @@
         <v>50</v>
       </c>
       <c r="K159" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L159" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M159" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7272,7 +7188,7 @@
         <v>20</v>
       </c>
       <c r="F160" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G160" t="s">
         <v>23</v>
@@ -7281,19 +7197,19 @@
         <v>26</v>
       </c>
       <c r="I160" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J160">
         <v>50</v>
       </c>
       <c r="K160" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L160" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M160" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7313,7 +7229,7 @@
         <v>20</v>
       </c>
       <c r="F161" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G161" t="s">
         <v>23</v>
@@ -7322,19 +7238,19 @@
         <v>26</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J161" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K161" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L161" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M161" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7354,28 +7270,28 @@
         <v>20</v>
       </c>
       <c r="F162" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J162">
         <v>50</v>
       </c>
       <c r="K162" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L162" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M162" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7395,28 +7311,28 @@
         <v>20</v>
       </c>
       <c r="F163" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H163" t="s">
         <v>20</v>
       </c>
       <c r="I163" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J163">
         <v>49.9</v>
       </c>
       <c r="K163" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L163" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M163" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7436,7 +7352,7 @@
         <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G164" t="s">
         <v>23</v>
@@ -7451,13 +7367,13 @@
         <v>49.9</v>
       </c>
       <c r="K164" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L164" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M164" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7477,7 +7393,7 @@
         <v>20</v>
       </c>
       <c r="F165" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G165" t="s">
         <v>23</v>
@@ -7492,13 +7408,13 @@
         <v>49.9</v>
       </c>
       <c r="K165" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L165" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M165" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7518,7 +7434,7 @@
         <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G166" t="s">
         <v>23</v>
@@ -7533,13 +7449,13 @@
         <v>49.9</v>
       </c>
       <c r="K166" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L166" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M166" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7559,7 +7475,7 @@
         <v>20</v>
       </c>
       <c r="F167" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G167" t="s">
         <v>23</v>
@@ -7568,19 +7484,19 @@
         <v>26</v>
       </c>
       <c r="I167" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J167">
         <v>49.9</v>
       </c>
       <c r="K167" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L167" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M167" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7600,7 +7516,7 @@
         <v>20</v>
       </c>
       <c r="F168" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G168" t="s">
         <v>23</v>
@@ -7609,19 +7525,19 @@
         <v>26</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J168" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L168" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M168" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7641,28 +7557,28 @@
         <v>20</v>
       </c>
       <c r="F169" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J169">
         <v>49.9</v>
       </c>
       <c r="K169" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L169" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M169" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7682,28 +7598,28 @@
         <v>20</v>
       </c>
       <c r="F170" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H170" t="s">
         <v>20</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J170">
         <v>50.9</v>
       </c>
       <c r="K170" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L170" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M170" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7723,7 +7639,7 @@
         <v>20</v>
       </c>
       <c r="F171" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G171" t="s">
         <v>23</v>
@@ -7738,13 +7654,13 @@
         <v>50.9</v>
       </c>
       <c r="K171" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L171" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M171" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7764,7 +7680,7 @@
         <v>20</v>
       </c>
       <c r="F172" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G172" t="s">
         <v>23</v>
@@ -7779,13 +7695,13 @@
         <v>50.9</v>
       </c>
       <c r="K172" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L172" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M172" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7805,7 +7721,7 @@
         <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G173" t="s">
         <v>23</v>
@@ -7820,13 +7736,13 @@
         <v>50.9</v>
       </c>
       <c r="K173" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L173" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M173" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7846,7 +7762,7 @@
         <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G174" t="s">
         <v>23</v>
@@ -7855,19 +7771,19 @@
         <v>26</v>
       </c>
       <c r="I174" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J174">
         <v>50.9</v>
       </c>
       <c r="K174" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L174" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M174" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7887,7 +7803,7 @@
         <v>20</v>
       </c>
       <c r="F175" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G175" t="s">
         <v>23</v>
@@ -7896,19 +7812,19 @@
         <v>26</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J175" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K175" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L175" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M175" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7928,28 +7844,28 @@
         <v>20</v>
       </c>
       <c r="F176" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J176">
         <v>50.9</v>
       </c>
       <c r="K176" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L176" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M176" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7969,28 +7885,28 @@
         <v>20</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H177" t="s">
         <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J177">
         <v>51.1</v>
       </c>
       <c r="K177" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L177" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M177" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8010,7 +7926,7 @@
         <v>20</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>23</v>
@@ -8025,13 +7941,13 @@
         <v>51.1</v>
       </c>
       <c r="K178" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L178" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M178" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8051,7 +7967,7 @@
         <v>20</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
         <v>23</v>
@@ -8066,13 +7982,13 @@
         <v>51.1</v>
       </c>
       <c r="K179" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L179" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M179" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8092,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>23</v>
@@ -8107,13 +8023,13 @@
         <v>51.1</v>
       </c>
       <c r="K180" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L180" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M180" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8133,7 +8049,7 @@
         <v>20</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
         <v>23</v>
@@ -8142,19 +8058,19 @@
         <v>26</v>
       </c>
       <c r="I181" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J181">
         <v>51.1</v>
       </c>
       <c r="K181" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L181" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M181" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8174,7 +8090,7 @@
         <v>20</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>23</v>
@@ -8183,19 +8099,19 @@
         <v>26</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J182" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K182" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L182" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M182" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8215,28 +8131,28 @@
         <v>20</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J183">
         <v>51.1</v>
       </c>
       <c r="K183" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L183" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M183" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8256,28 +8172,28 @@
         <v>20</v>
       </c>
       <c r="F184" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G184" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H184" t="s">
         <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J184">
         <v>50.8</v>
       </c>
       <c r="K184" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L184" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M184" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8297,7 +8213,7 @@
         <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G185" t="s">
         <v>23</v>
@@ -8312,13 +8228,13 @@
         <v>50.8</v>
       </c>
       <c r="K185" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L185" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M185" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8338,7 +8254,7 @@
         <v>20</v>
       </c>
       <c r="F186" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G186" t="s">
         <v>23</v>
@@ -8353,13 +8269,13 @@
         <v>50.8</v>
       </c>
       <c r="K186" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L186" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M186" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8379,7 +8295,7 @@
         <v>20</v>
       </c>
       <c r="F187" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G187" t="s">
         <v>23</v>
@@ -8394,13 +8310,13 @@
         <v>50.8</v>
       </c>
       <c r="K187" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L187" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M187" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8420,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="F188" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G188" t="s">
         <v>23</v>
@@ -8429,19 +8345,19 @@
         <v>26</v>
       </c>
       <c r="I188" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J188">
         <v>50.8</v>
       </c>
       <c r="K188" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L188" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M188" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8461,7 +8377,7 @@
         <v>20</v>
       </c>
       <c r="F189" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G189" t="s">
         <v>23</v>
@@ -8470,19 +8386,19 @@
         <v>26</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J189">
         <v>50.8</v>
       </c>
       <c r="K189" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L189" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M189" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8502,28 +8418,28 @@
         <v>20</v>
       </c>
       <c r="F190" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J190">
         <v>50.8</v>
       </c>
       <c r="K190" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L190" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M190" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8543,28 +8459,28 @@
         <v>20</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H191" t="s">
         <v>20</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J191">
         <v>49.7</v>
       </c>
       <c r="K191" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L191" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M191" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8584,7 +8500,7 @@
         <v>20</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G192" t="s">
         <v>23</v>
@@ -8599,13 +8515,13 @@
         <v>49.7</v>
       </c>
       <c r="K192" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L192" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M192" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8625,7 +8541,7 @@
         <v>20</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
         <v>23</v>
@@ -8640,13 +8556,13 @@
         <v>49.7</v>
       </c>
       <c r="K193" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L193" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M193" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8666,7 +8582,7 @@
         <v>20</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
         <v>23</v>
@@ -8681,13 +8597,13 @@
         <v>49.7</v>
       </c>
       <c r="K194" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L194" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M194" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8707,7 +8623,7 @@
         <v>20</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
         <v>23</v>
@@ -8716,19 +8632,19 @@
         <v>26</v>
       </c>
       <c r="I195" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J195">
         <v>49.7</v>
       </c>
       <c r="K195" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L195" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M195" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8748,7 +8664,7 @@
         <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
         <v>23</v>
@@ -8757,19 +8673,19 @@
         <v>26</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J196">
         <v>49.7</v>
       </c>
       <c r="K196" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L196" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M196" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8789,28 +8705,28 @@
         <v>20</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J197">
         <v>49.7</v>
       </c>
       <c r="K197" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L197" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M197" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8830,28 +8746,28 @@
         <v>20</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H198" t="s">
         <v>20</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J198">
         <v>50.9</v>
       </c>
       <c r="K198" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L198" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M198" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8871,7 +8787,7 @@
         <v>20</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
         <v>23</v>
@@ -8886,13 +8802,13 @@
         <v>50.9</v>
       </c>
       <c r="K199" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L199" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M199" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8912,7 +8828,7 @@
         <v>20</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
         <v>23</v>
@@ -8927,13 +8843,13 @@
         <v>50.9</v>
       </c>
       <c r="K200" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L200" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M200" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8953,7 +8869,7 @@
         <v>20</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
         <v>23</v>
@@ -8968,13 +8884,13 @@
         <v>50.9</v>
       </c>
       <c r="K201" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L201" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M201" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8994,7 +8910,7 @@
         <v>20</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>23</v>
@@ -9003,19 +8919,19 @@
         <v>26</v>
       </c>
       <c r="I202" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J202">
         <v>50.9</v>
       </c>
       <c r="K202" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L202" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M202" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9035,7 +8951,7 @@
         <v>20</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
         <v>23</v>
@@ -9044,19 +8960,19 @@
         <v>26</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J203">
         <v>50.9</v>
       </c>
       <c r="K203" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L203" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M203" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9076,28 +8992,28 @@
         <v>20</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J204">
         <v>50.9</v>
       </c>
       <c r="K204" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L204" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M204" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9117,28 +9033,28 @@
         <v>20</v>
       </c>
       <c r="F205" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H205" t="s">
         <v>20</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J205">
         <v>50.9</v>
       </c>
       <c r="K205" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L205" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M205" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,7 +9074,7 @@
         <v>20</v>
       </c>
       <c r="F206" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G206" t="s">
         <v>23</v>
@@ -9173,13 +9089,13 @@
         <v>50.9</v>
       </c>
       <c r="K206" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L206" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M206" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9199,7 +9115,7 @@
         <v>20</v>
       </c>
       <c r="F207" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G207" t="s">
         <v>23</v>
@@ -9214,13 +9130,13 @@
         <v>50.9</v>
       </c>
       <c r="K207" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L207" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M207" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9240,7 +9156,7 @@
         <v>20</v>
       </c>
       <c r="F208" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G208" t="s">
         <v>23</v>
@@ -9255,13 +9171,13 @@
         <v>50.9</v>
       </c>
       <c r="K208" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L208" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M208" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9281,7 +9197,7 @@
         <v>20</v>
       </c>
       <c r="F209" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G209" t="s">
         <v>23</v>
@@ -9290,19 +9206,19 @@
         <v>26</v>
       </c>
       <c r="I209" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J209">
         <v>50.9</v>
       </c>
       <c r="K209" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L209" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M209" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9322,7 +9238,7 @@
         <v>20</v>
       </c>
       <c r="F210" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G210" t="s">
         <v>23</v>
@@ -9331,19 +9247,19 @@
         <v>26</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J210" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K210" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L210" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M210" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9363,28 +9279,28 @@
         <v>20</v>
       </c>
       <c r="F211" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J211">
         <v>50.9</v>
       </c>
       <c r="K211" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L211" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M211" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9404,28 +9320,28 @@
         <v>20</v>
       </c>
       <c r="F212" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H212" t="s">
         <v>20</v>
       </c>
       <c r="I212" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J212">
         <v>48.3</v>
       </c>
       <c r="K212" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L212" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M212" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -9445,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="F213" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G213" t="s">
         <v>23</v>
@@ -9460,13 +9376,13 @@
         <v>48.3</v>
       </c>
       <c r="K213" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L213" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M213" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -9486,7 +9402,7 @@
         <v>20</v>
       </c>
       <c r="F214" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G214" t="s">
         <v>23</v>
@@ -9501,13 +9417,13 @@
         <v>48.3</v>
       </c>
       <c r="K214" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L214" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M214" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9527,7 +9443,7 @@
         <v>20</v>
       </c>
       <c r="F215" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G215" t="s">
         <v>23</v>
@@ -9542,13 +9458,13 @@
         <v>48.3</v>
       </c>
       <c r="K215" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L215" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M215" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9568,7 +9484,7 @@
         <v>20</v>
       </c>
       <c r="F216" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G216" t="s">
         <v>23</v>
@@ -9577,19 +9493,19 @@
         <v>26</v>
       </c>
       <c r="I216" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J216">
         <v>48.3</v>
       </c>
       <c r="K216" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L216" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M216" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9609,7 +9525,7 @@
         <v>20</v>
       </c>
       <c r="F217" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G217" t="s">
         <v>23</v>
@@ -9618,19 +9534,19 @@
         <v>26</v>
       </c>
       <c r="I217" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J217">
         <v>48.3</v>
       </c>
       <c r="K217" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L217" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M217" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9650,28 +9566,28 @@
         <v>20</v>
       </c>
       <c r="F218" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J218">
         <v>48.3</v>
       </c>
       <c r="K218" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L218" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M218" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9691,28 +9607,28 @@
         <v>20</v>
       </c>
       <c r="F219" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H219" t="s">
         <v>20</v>
       </c>
       <c r="I219" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J219">
         <v>48.6</v>
       </c>
       <c r="K219" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L219" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M219" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9732,7 +9648,7 @@
         <v>20</v>
       </c>
       <c r="F220" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G220" t="s">
         <v>23</v>
@@ -9747,13 +9663,13 @@
         <v>48.6</v>
       </c>
       <c r="K220" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L220" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M220" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9773,7 +9689,7 @@
         <v>20</v>
       </c>
       <c r="F221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G221" t="s">
         <v>23</v>
@@ -9788,13 +9704,13 @@
         <v>48.6</v>
       </c>
       <c r="K221" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L221" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M221" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9814,7 +9730,7 @@
         <v>20</v>
       </c>
       <c r="F222" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G222" t="s">
         <v>23</v>
@@ -9829,13 +9745,13 @@
         <v>48.6</v>
       </c>
       <c r="K222" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L222" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M222" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9855,7 +9771,7 @@
         <v>20</v>
       </c>
       <c r="F223" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G223" t="s">
         <v>23</v>
@@ -9864,19 +9780,19 @@
         <v>26</v>
       </c>
       <c r="I223" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J223">
         <v>48.6</v>
       </c>
       <c r="K223" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L223" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M223" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9896,7 +9812,7 @@
         <v>20</v>
       </c>
       <c r="F224" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G224" t="s">
         <v>23</v>
@@ -9905,19 +9821,19 @@
         <v>26</v>
       </c>
       <c r="I224" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J224">
         <v>48.6</v>
       </c>
       <c r="K224" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L224" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M224" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9937,28 +9853,28 @@
         <v>20</v>
       </c>
       <c r="F225" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J225">
         <v>48.6</v>
       </c>
       <c r="K225" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L225" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M225" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9978,28 +9894,28 @@
         <v>20</v>
       </c>
       <c r="F226" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G226" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H226" t="s">
         <v>20</v>
       </c>
       <c r="I226" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J226">
         <v>48</v>
       </c>
       <c r="K226" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L226" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M226" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -10019,7 +9935,7 @@
         <v>20</v>
       </c>
       <c r="F227" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G227" t="s">
         <v>23</v>
@@ -10034,13 +9950,13 @@
         <v>48</v>
       </c>
       <c r="K227" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L227" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M227" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10060,7 +9976,7 @@
         <v>20</v>
       </c>
       <c r="F228" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G228" t="s">
         <v>23</v>
@@ -10075,13 +9991,13 @@
         <v>48</v>
       </c>
       <c r="K228" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L228" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M228" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10101,7 +10017,7 @@
         <v>20</v>
       </c>
       <c r="F229" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G229" t="s">
         <v>23</v>
@@ -10116,13 +10032,13 @@
         <v>48</v>
       </c>
       <c r="K229" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L229" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M229" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10142,7 +10058,7 @@
         <v>20</v>
       </c>
       <c r="F230" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G230" t="s">
         <v>23</v>
@@ -10151,19 +10067,19 @@
         <v>26</v>
       </c>
       <c r="I230" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J230">
         <v>48</v>
       </c>
       <c r="K230" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L230" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M230" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10183,7 +10099,7 @@
         <v>20</v>
       </c>
       <c r="F231" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G231" t="s">
         <v>23</v>
@@ -10192,19 +10108,19 @@
         <v>26</v>
       </c>
       <c r="I231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J231">
         <v>48</v>
       </c>
       <c r="K231" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L231" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M231" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10224,28 +10140,28 @@
         <v>20</v>
       </c>
       <c r="F232" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J232">
         <v>48</v>
       </c>
       <c r="K232" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L232" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M232" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10265,28 +10181,28 @@
         <v>20</v>
       </c>
       <c r="F233" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G233" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H233" t="s">
         <v>20</v>
       </c>
       <c r="I233" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J233">
         <v>47.5</v>
       </c>
       <c r="K233" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L233" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M233" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10306,7 +10222,7 @@
         <v>20</v>
       </c>
       <c r="F234" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G234" t="s">
         <v>23</v>
@@ -10321,13 +10237,13 @@
         <v>47.5</v>
       </c>
       <c r="K234" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L234" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M234" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10347,7 +10263,7 @@
         <v>20</v>
       </c>
       <c r="F235" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G235" t="s">
         <v>23</v>
@@ -10362,13 +10278,13 @@
         <v>47.5</v>
       </c>
       <c r="K235" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L235" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M235" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10388,7 +10304,7 @@
         <v>20</v>
       </c>
       <c r="F236" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G236" t="s">
         <v>23</v>
@@ -10403,13 +10319,13 @@
         <v>47.5</v>
       </c>
       <c r="K236" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L236" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M236" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10429,7 +10345,7 @@
         <v>20</v>
       </c>
       <c r="F237" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G237" t="s">
         <v>23</v>
@@ -10438,19 +10354,19 @@
         <v>26</v>
       </c>
       <c r="I237" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J237">
         <v>47.5</v>
       </c>
       <c r="K237" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L237" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M237" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10470,7 +10386,7 @@
         <v>20</v>
       </c>
       <c r="F238" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G238" t="s">
         <v>23</v>
@@ -10479,19 +10395,19 @@
         <v>26</v>
       </c>
       <c r="I238" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J238">
         <v>47.5</v>
       </c>
       <c r="K238" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L238" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M238" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -10511,28 +10427,28 @@
         <v>20</v>
       </c>
       <c r="F239" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J239">
         <v>47.5</v>
       </c>
       <c r="K239" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L239" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M239" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -10552,28 +10468,28 @@
         <v>20</v>
       </c>
       <c r="F240" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H240" t="s">
         <v>20</v>
       </c>
       <c r="I240" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J240">
         <v>47.5</v>
       </c>
       <c r="K240" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L240" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M240" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10593,7 +10509,7 @@
         <v>20</v>
       </c>
       <c r="F241" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G241" t="s">
         <v>23</v>
@@ -10602,19 +10518,19 @@
         <v>24</v>
       </c>
       <c r="I241" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J241">
         <v>47.5</v>
       </c>
       <c r="K241" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L241" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M241" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10634,7 +10550,7 @@
         <v>20</v>
       </c>
       <c r="F242" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G242" t="s">
         <v>23</v>
@@ -10649,13 +10565,13 @@
         <v>47.5</v>
       </c>
       <c r="K242" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L242" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M242" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10675,7 +10591,7 @@
         <v>20</v>
       </c>
       <c r="F243" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G243" t="s">
         <v>23</v>
@@ -10684,19 +10600,19 @@
         <v>26</v>
       </c>
       <c r="I243" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J243">
         <v>47.5</v>
       </c>
       <c r="K243" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L243" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M243" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10716,7 +10632,7 @@
         <v>20</v>
       </c>
       <c r="F244" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G244" t="s">
         <v>23</v>
@@ -10725,19 +10641,19 @@
         <v>26</v>
       </c>
       <c r="I244" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J244" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K244" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L244" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M244" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10757,28 +10673,28 @@
         <v>20</v>
       </c>
       <c r="F245" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J245">
         <v>47.5</v>
       </c>
       <c r="K245" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L245" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M245" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10798,28 +10714,28 @@
         <v>20</v>
       </c>
       <c r="F246" t="s">
+        <v>40</v>
+      </c>
+      <c r="G246" t="s">
+        <v>42</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" t="s">
         <v>43</v>
-      </c>
-      <c r="G246" t="s">
-        <v>45</v>
-      </c>
-      <c r="H246" t="s">
-        <v>20</v>
-      </c>
-      <c r="I246" t="s">
-        <v>46</v>
       </c>
       <c r="J246">
         <v>48.4</v>
       </c>
       <c r="K246" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L246" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M246" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10839,7 +10755,7 @@
         <v>20</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G247" t="s">
         <v>23</v>
@@ -10854,13 +10770,13 @@
         <v>48.4</v>
       </c>
       <c r="K247" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L247" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M247" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10880,7 +10796,7 @@
         <v>20</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
         <v>23</v>
@@ -10895,13 +10811,13 @@
         <v>48.4</v>
       </c>
       <c r="K248" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L248" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M248" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10921,7 +10837,7 @@
         <v>20</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
         <v>23</v>
@@ -10936,13 +10852,13 @@
         <v>48.4</v>
       </c>
       <c r="K249" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L249" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M249" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10962,7 +10878,7 @@
         <v>20</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G250" t="s">
         <v>23</v>
@@ -10971,19 +10887,19 @@
         <v>26</v>
       </c>
       <c r="I250" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J250">
         <v>48.4</v>
       </c>
       <c r="K250" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L250" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M250" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -11003,7 +10919,7 @@
         <v>20</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G251" t="s">
         <v>23</v>
@@ -11012,19 +10928,19 @@
         <v>26</v>
       </c>
       <c r="I251" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J251">
         <v>48.4</v>
       </c>
       <c r="K251" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L251" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M251" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -11044,28 +10960,28 @@
         <v>20</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J252">
         <v>48.4</v>
       </c>
       <c r="K252" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L252" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M252" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11085,28 +11001,28 @@
         <v>20</v>
       </c>
       <c r="F253" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G253" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H253" t="s">
         <v>20</v>
       </c>
       <c r="I253" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J253">
         <v>47.2</v>
       </c>
       <c r="K253" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L253" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M253" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11126,7 +11042,7 @@
         <v>20</v>
       </c>
       <c r="F254" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G254" t="s">
         <v>23</v>
@@ -11141,13 +11057,13 @@
         <v>47.2</v>
       </c>
       <c r="K254" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L254" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M254" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11167,7 +11083,7 @@
         <v>20</v>
       </c>
       <c r="F255" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G255" t="s">
         <v>23</v>
@@ -11182,13 +11098,13 @@
         <v>47.2</v>
       </c>
       <c r="K255" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L255" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M255" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11208,7 +11124,7 @@
         <v>20</v>
       </c>
       <c r="F256" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G256" t="s">
         <v>23</v>
@@ -11223,13 +11139,13 @@
         <v>47.2</v>
       </c>
       <c r="K256" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L256" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M256" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11249,7 +11165,7 @@
         <v>20</v>
       </c>
       <c r="F257" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G257" t="s">
         <v>23</v>
@@ -11258,19 +11174,19 @@
         <v>26</v>
       </c>
       <c r="I257" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J257">
         <v>47.2</v>
       </c>
       <c r="K257" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L257" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M257" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11290,7 +11206,7 @@
         <v>20</v>
       </c>
       <c r="F258" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G258" t="s">
         <v>23</v>
@@ -11299,19 +11215,19 @@
         <v>26</v>
       </c>
       <c r="I258" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J258">
         <v>47.2</v>
       </c>
       <c r="K258" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L258" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M258" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11331,28 +11247,28 @@
         <v>20</v>
       </c>
       <c r="F259" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J259">
         <v>47.2</v>
       </c>
       <c r="K259" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L259" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M259" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11372,28 +11288,28 @@
         <v>20</v>
       </c>
       <c r="F260" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H260" t="s">
         <v>20</v>
       </c>
       <c r="I260" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J260">
         <v>50</v>
       </c>
       <c r="K260" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L260" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M260" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11413,28 +11329,28 @@
         <v>20</v>
       </c>
       <c r="F261" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H261" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I261" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J261">
         <v>50</v>
       </c>
       <c r="K261" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L261" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M261" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11454,28 +11370,28 @@
         <v>20</v>
       </c>
       <c r="F262" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G262" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H262" t="s">
         <v>20</v>
       </c>
       <c r="I262" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J262">
         <v>50</v>
       </c>
       <c r="K262" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L262" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M262" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11495,28 +11411,28 @@
         <v>20</v>
       </c>
       <c r="F263" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H263" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I263" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J263">
         <v>50</v>
       </c>
       <c r="K263" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L263" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M263" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11536,28 +11452,28 @@
         <v>20</v>
       </c>
       <c r="F264" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G264" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H264" t="s">
         <v>20</v>
       </c>
       <c r="I264" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J264">
         <v>50</v>
       </c>
       <c r="K264" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L264" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M264" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -11577,28 +11493,28 @@
         <v>20</v>
       </c>
       <c r="F265" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H265" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I265" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J265">
         <v>50</v>
       </c>
       <c r="K265" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L265" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M265" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
